--- a/biology/Médecine/Frederik_Bernard_Albinus/Frederik_Bernard_Albinus.xlsx
+++ b/biology/Médecine/Frederik_Bernard_Albinus/Frederik_Bernard_Albinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederik Bernard Albinus (également connu sous son nom allemand de Friedrich Bernhard Albinus), né le 20 juin 1715 à Leyde et mort le 23 mai 1778 dans la même ville, est un médecin néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le plus jeune fils de Bernhard Albinus. Il étudie, à l'université de Leyde, la philosophie, les mathématiques et la botanique avec Willem Jacob 's Gravesande (1688-1742) et Adrianus van Royen (1704-1779). Il entreprend des études de médecine auprès de Herman Boerhaave, Hermannus Oosterdijk Schacht (1672-1744), de Hieronymus David Gaubius (1705-1780) et de son frère aîné Bernhard Siegfried Albinus (1697-1770). Après ses études à Leyde, il se rend à Paris où il poursuit sa formation en chirurgie, obstétrique et chimie notamment avec Jacques-Bénigne Winslow (1669-1760), ainsi qu'à Londres.
 De retour aux Pays-Bas, il se voit décerner, par son propre frère, un doctorat en philosophie et en médecine à Leyde, le 22 décembre 1740 . Puis il exerce la médecine générale à Amsterdam, ce qui lui permet de perfectionner ses aptitudes pratiques. Pour soutenir son frère, il répond, le 9 août 1745, à un appel afin de  pourvoir le poste d'agrégé (Dozent) en chirurgie et médecine à l'université de Leyde, un poste qu'il inaugure le 20 octobre avec une leçon intitulée de Amoenitatibus anatomicis.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De meteoris ignitis. 1740 (PDF).
 De Amoenitatibus Anatomicis.
